--- a/CFRP2本_lap=30/correction_y_l30.xlsx
+++ b/CFRP2本_lap=30/correction_y_l30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/GitHub/ansys-management/CFRP2本_lap=30/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FFDF31-456D-A446-8C92-BEC675FA91FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5B4888-3D6A-7743-BC3F-FEE2CEF8C284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="24200" windowHeight="12840" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1235,6 +1235,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en"/>
               <a:t>C2_l30_th2.0_g2.0_cor</a:t>
             </a:r>
           </a:p>
@@ -1937,6 +1938,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -1970,6 +1972,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -2026,6 +2029,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
               <a:t>10%</a:t>
             </a:r>
           </a:p>
@@ -2158,6 +2162,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Strain [-]</a:t>
                 </a:r>
               </a:p>
@@ -2191,6 +2196,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en"/>
                   <a:t>Stress [MPa]</a:t>
                 </a:r>
               </a:p>
@@ -10591,7 +10597,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -16497,9 +16503,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
